--- a/data/0029000/segment_classify.xlsx
+++ b/data/0029000/segment_classify.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,26 +444,6 @@
           <t>Pulmonary Prediction</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Input Image Path</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Predicted Mask Path</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Multiply Image Path</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Overlay Image Path</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,26 +456,6 @@
           <t>Super Class Output : Abnormal Subclass Output: Corona Virus</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>data\0029000\images\input_image.png</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>data\0029000\images\pred_mask.png</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>data\0029000\images\multiply_image.png</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>data\0029000\images\overlay.png</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
